--- a/server/data.xlsx
+++ b/server/data.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -402,10 +402,32 @@
         <v>https://www.istockphoto.com/photo/photo-of-attractive-pretty-business-lady-short-hairstyle-friendly-smiling-gm1210306927-350572037?utm_source=pixabay&amp;utm_medium=affiliate&amp;utm_campaign=SRP_image_sponsored&amp;referrer_url=http%3A%2F%2Fpixabay.com%2Fimages%2Fsearch%2Fwoman%2F&amp;utm_term=woman</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>simone</v>
+      </c>
+      <c r="B3" t="str">
+        <v>eng</v>
+      </c>
+      <c r="C3" t="str">
+        <v>https://www.google.com/search?q=woman+images&amp;sxsrf=AOaemvK4xz3BpYrKEKqZlswz2UySAVdiIg:1635846180761&amp;tbm=isch&amp;source=iu&amp;ictx=1&amp;fir=z1vUnhZhy4vHLM%252Cw9lwRvhOLcBnEM%252C_%253BoHM2ADLFa9zOaM%252CmhVpgO-mSZBUoM%252C_%253BgbETiPKBXH89xM%252Coh8rUv1j2f6s0M%252C_%253BOMmdPQxhNtOeRM%252CkC13gh9kKXPQuM%252C_%253B1QZVQuxmsTPcEM%252C_YLGRWZTDqBSNM%252C_%253Bro-9K1QFZ14h_M%252CvVepmz-ZTGVmMM%252C_%253B4z0-1RF1ese3WM%252Cw9lwRvhOLcBnEM%252C_%253BHHm8RWZmC-3MtM%252COat73QzR-Ou3TM%252C_%253BSsGCLunXgu6i1M%252CnLC5dRPAW3tsfM%252C_%253BryoHkEhVtrFXXM%252CjjEgRYASCasmzM%252C_%253BU1JuDIAPZj_abM%252C83i0JGUU0vDxuM%252C_%253BYYJO7YzL5B9GuM%252Cw9lwRvhOLcBnEM%252C_&amp;vet=1&amp;usg=AI4_-kRWLMS7UorHdDVwRZomkpBaG45ABA&amp;sa=X&amp;ved=2ahUKEwiMm4v0sfnzAhWSecAKHb15CC8Q9QF6BAgHEAE#imgrc=z1vUnhZhy4vHLM</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>juliana</v>
+      </c>
+      <c r="B4" t="str">
+        <v>eng</v>
+      </c>
+      <c r="C4" t="str">
+        <v>https://www.google.com/search?q=woman+images&amp;sxsrf=AOaemvK4xz3BpYrKEKqZlswz2UySAVdiIg:1635846180761&amp;tbm=isch&amp;source=iu&amp;ictx=1&amp;fir=z1vUnhZhy4vHLM%252Cw9lwRvhOLcBnEM%252C_%253BoHM2ADLFa9zOaM%252CmhVpgO-mSZBUoM%252C_%253BgbETiPKBXH89xM%252Coh8rUv1j2f6s0M%252C_%253BOMmdPQxhNtOeRM%252CkC13gh9kKXPQuM%252C_%253B1QZVQuxmsTPcEM%252C_YLGRWZTDqBSNM%252C_%253Bro-9K1QFZ14h_M%252CvVepmz-ZTGVmMM%252C_%253B4z0-1RF1ese3WM%252Cw9lwRvhOLcBnEM%252C_%253BHHm8RWZmC-3MtM%252COat73QzR-Ou3TM%252C_%253BSsGCLunXgu6i1M%252CnLC5dRPAW3tsfM%252C_%253BryoHkEhVtrFXXM%252CjjEgRYASCasmzM%252C_%253BU1JuDIAPZj_abM%252C83i0JGUU0vDxuM%252C_%253BYYJO7YzL5B9GuM%252Cw9lwRvhOLcBnEM%252C_&amp;vet=1&amp;usg=AI4_-kRWLMS7UorHdDVwRZomkpBaG45ABA&amp;sa=X&amp;ved=2ahUKEwiMm4v0sfnzAhWSecAKHb15CC8Q9QF6BAgLEAE#imgrc=4z0-1RF1ese3WM</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C2"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:C4"/>
   </ignoredErrors>
 </worksheet>
 </file>